--- a/Excel Examples/titanic.xlsx
+++ b/Excel Examples/titanic.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="200" windowWidth="28780" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="33020" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Tables" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="27" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="1245">
   <si>
     <t>PassengerId</t>
   </si>
@@ -3777,34 +3777,20 @@
     <t xml:space="preserve">Cabin Level  </t>
   </si>
   <si>
-    <t>Cabin Levels "B"(Bridge Deck, was the top weight-bearing deck and the uppermost level of the hull) and "E"(Upper Deck) had the highest percentage of survivors.</t>
-  </si>
-  <si>
     <t>Training Data Set from Kaggle Titanic Competition</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">An interesting finding: The highest percentage of survivors embarked from Cherbourg (both Female: ~88% and Male:~31%).  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The question begs to be asked, did everyone from Cherbourg know each other and were more willing to help felloe passengers, or is it coincidence that people who started at this point are natural survivors?</t>
-    </r>
+    <t>Cabin Levels "B"(Bridge Deck, was the top weight-bearing deck and the uppermost level of the hull), "D" (Saloon/1st Class Dining) and "E"(Upper Deck) had the highest percentage of survivors.</t>
+  </si>
+  <si>
+    <t>An interesting finding: The highest percentage of survivors embarked from Cherbourg (~55%).  The question begs to be asked, did everyone from Cherbourg know each other and were more willing to help fellow passengers, or is it coincidence that people who started at this point are natural survivors?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3833,15 +3819,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3861,12 +3838,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3897,7 +3880,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3917,31 +3900,32 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3962,7 +3946,39 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -4018,31 +4034,28 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -4103,8 +4116,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4020634" cy="5981700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr=" schematic of the Titanic's deck layout"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12636500" y="1333500"/>
+          <a:ext cx="4020634" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Sarah Quadri" refreshedDate="42059.468245949072" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="891">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Sarah Quadri" refreshedDate="42059.509992824074" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="891">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N892" sheet="Data"/>
   </cacheSource>
@@ -18446,243 +18514,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A2:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="4"/>
-    <field x="11"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="29">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Number Survived" fld="1" baseField="1" baseItem="1048829"/>
-    <dataField name="Total Number of Passengers" fld="1" subtotal="count" baseField="1" baseItem="1"/>
-    <dataField name="  % Survived" fld="14" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="Cabin Level  ">
-  <location ref="G2:J13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="Cabin Level  ">
+  <location ref="G3:J14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -18768,8 +18601,8 @@
     <dataField name="Total Number of Passengers" fld="1" subtotal="count" baseField="1" baseItem="1"/>
     <dataField name="  % Survived" fld="14" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="44">
+  <formats count="12">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18778,7 +18611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18787,7 +18620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18796,10 +18629,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="30">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18808,7 +18641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="28">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18817,7 +18650,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18826,14 +18659,247 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="26">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Number Survived" fld="1" baseField="1" baseItem="1048829"/>
+    <dataField name="Total Number of Passengers" fld="1" subtotal="count" baseField="1" baseItem="1"/>
+    <dataField name="  % Survived" fld="14" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -19174,643 +19240,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="41.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+    <row r="1" spans="1:11" ht="80">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="180">
+      <c r="B3" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="9" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="135">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:11" ht="45">
+      <c r="A4" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>1231</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>1231</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>233</v>
-      </c>
-      <c r="C4" s="3">
-        <v>314</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.7420382165605095</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B5" s="17">
+        <v>93</v>
+      </c>
+      <c r="C5" s="17">
+        <v>168</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
         <v>206</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>687</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J5" s="7">
         <v>0.29985443959243085</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B5" s="3">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3">
-        <v>73</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.87671232876712324</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.38961038961038963</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>7</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <v>15</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J6" s="7">
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B6" s="3">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.97674418604651159</v>
-      </c>
-      <c r="G6" s="2" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B7" s="3">
+        <v>217</v>
+      </c>
+      <c r="C7" s="3">
+        <v>644</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.33695652173913043</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>1235</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="17">
         <v>35</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="17">
         <v>47</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="18">
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>35</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <v>59</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="7">
         <v>0.59322033898305082</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B8" s="3">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.65217391304347827</v>
-      </c>
-      <c r="G8" s="2" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B9" s="3">
+        <v>342</v>
+      </c>
+      <c r="C9" s="3">
+        <v>891</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.38383838383838381</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="17">
         <v>25</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="17">
         <v>33</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="18">
         <v>0.75757575757575757</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B9" s="3">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7">
+    <row r="10" spans="1:11">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="G10" s="16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H10" s="17">
+        <v>24</v>
+      </c>
+      <c r="I10" s="17">
+        <v>32</v>
+      </c>
+      <c r="J10" s="18">
         <v>0.75</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H9" s="3">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3">
-        <v>32</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="G11" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I11" s="3">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7">
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="12" spans="1:11">
+      <c r="A12" s="9"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="G12" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B12" s="3">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="G12" s="2" t="s">
+    <row r="13" spans="1:11">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="G13" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B13" s="3">
-        <v>140</v>
-      </c>
-      <c r="C13" s="3">
-        <v>203</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.68965517241379315</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="G14" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>342</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <v>891</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <v>0.38383838383838381</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B14" s="3">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F14"/>
-    </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B15" s="3">
-        <v>61</v>
-      </c>
-      <c r="C15" s="3">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.91044776119402981</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B16" s="3">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3">
-        <v>88</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.375</v>
-      </c>
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
+    <row r="17" spans="2:6">
+      <c r="B17"/>
+      <c r="C17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
+    <row r="18" spans="2:6">
+      <c r="B18"/>
+      <c r="C18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3">
-        <v>109</v>
-      </c>
-      <c r="C19" s="3">
-        <v>577</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.18890814558058924</v>
-      </c>
+    <row r="19" spans="2:6">
+      <c r="B19"/>
+      <c r="C19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B20" s="3">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3">
-        <v>95</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.30526315789473685</v>
-      </c>
+    <row r="20" spans="2:6">
+      <c r="B20"/>
+      <c r="C20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B21" s="3">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.40476190476190477</v>
-      </c>
+    <row r="21" spans="2:6">
+      <c r="B21"/>
+      <c r="C21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.2</v>
-      </c>
+    <row r="22" spans="2:6">
+      <c r="B22"/>
+      <c r="C22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3">
-        <v>43</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.23255813953488372</v>
-      </c>
+    <row r="23" spans="2:6">
+      <c r="B23"/>
+      <c r="C23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7">
-        <v>7.3170731707317069E-2</v>
-      </c>
+    <row r="24" spans="2:6">
+      <c r="B24"/>
+      <c r="C24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
+    <row r="25" spans="2:6">
+      <c r="B25"/>
+      <c r="C25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
+    <row r="26" spans="2:6">
+      <c r="B26"/>
+      <c r="C26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7">
-        <v>7.6923076923076927E-2</v>
-      </c>
+    <row r="27" spans="2:6">
+      <c r="B27"/>
+      <c r="C27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B28" s="3">
-        <v>77</v>
-      </c>
-      <c r="C28" s="3">
-        <v>441</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.17460317460317459</v>
-      </c>
+    <row r="28" spans="2:6">
+      <c r="B28"/>
+      <c r="C28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
-        <v>79</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.35443037974683544</v>
-      </c>
+    <row r="29" spans="2:6">
+      <c r="B29"/>
+      <c r="C29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B30" s="3">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3">
-        <v>97</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.15463917525773196</v>
-      </c>
+    <row r="30" spans="2:6">
+      <c r="B30"/>
+      <c r="C30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B31" s="3">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3">
-        <v>265</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.12830188679245283</v>
-      </c>
+    <row r="31" spans="2:6">
+      <c r="B31"/>
+      <c r="C31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B32" s="3">
-        <v>342</v>
-      </c>
-      <c r="C32" s="3">
-        <v>891</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.38383838383838381</v>
-      </c>
+    <row r="32" spans="2:6">
+      <c r="B32"/>
+      <c r="C32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:6">
       <c r="B33"/>
       <c r="C33"/>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:6">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:6">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:6">
       <c r="B37"/>
       <c r="C37"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38"/>
+      <c r="C38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
